--- a/examples/Example-Dataset.xlsx
+++ b/examples/Example-Dataset.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="415">
   <si>
-    <t xml:space="preserve">Species</t>
+    <t xml:space="preserve">SampleID</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -1363,11 +1363,11 @@
   </sheetPr>
   <dimension ref="A1:NE33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BQ1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BU1" activeCellId="0" sqref="BU1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>
